--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Define the deployment Architecture</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Prepare for the "tussentijdse evaluatie"</t>
-  </si>
-  <si>
-    <t>Presentations on 27th and 28th of March</t>
   </si>
   <si>
     <t>3.4.4</t>
@@ -260,6 +257,15 @@
   </si>
   <si>
     <t>Find a way to not get fucked by power outages or machine crashes</t>
+  </si>
+  <si>
+    <t>Presentation on 27/03 at 11:30 in room A118</t>
+  </si>
+  <si>
+    <t>Currently works for chrome</t>
+  </si>
+  <si>
+    <t>Idk, It should be fine? Might not be 100% bug free, so I'm putting it on finished, but not 100%</t>
   </si>
 </sst>
 </file>
@@ -692,7 +698,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +794,15 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -840,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -848,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -857,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -908,7 +914,10 @@
         <v>25</v>
       </c>
       <c r="E17" s="14">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,10 +925,16 @@
         <v>2.4</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="14">
-        <v>0.5</v>
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -929,23 +944,24 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="14">
-        <v>0.1</v>
-      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2.6</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="14"/>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1005,7 +1021,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="I26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1033,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,15 +1063,15 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -1063,10 +1079,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -1074,10 +1090,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -1085,10 +1101,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -1096,10 +1112,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
@@ -1107,10 +1123,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1118,16 +1134,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
         <v>52</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1135,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -1147,7 +1163,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -1156,30 +1172,30 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="14">
         <v>0.7</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,7 +1203,7 @@
         <v>4.2</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>10</v>
@@ -1198,7 +1214,7 @@
         <v>4.3</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>

--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>Define the deployment Architecture</t>
   </si>
@@ -267,12 +267,15 @@
   <si>
     <t>Idk, It should be fine? Might not be 100% bug free, so I'm putting it on finished, but not 100%</t>
   </si>
+  <si>
+    <t>https://askubuntu.com/questions/505506/how-to-get-bash-or-ssh-into-a-running-container-in-background-mode First answer is relevant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +307,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,7 +355,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="0">
       <alignment horizontal="left"/>
@@ -352,8 +363,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -391,8 +403,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1"/>
     <cellStyle name="Style 2" xfId="2"/>
@@ -697,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +795,9 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1250,8 +1267,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Define the deployment Architecture</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Utilize Selenium grid in the execution of web based test suites</t>
   </si>
   <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
     <t>Utilize Docker container technology in the SDTF runtime</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
   </si>
   <si>
     <t>Create a working demo on the test infrastructure</t>
-  </si>
-  <si>
-    <t>Dependant on 2.1</t>
   </si>
   <si>
     <t>Documentation and thesis</t>
@@ -269,6 +257,15 @@
   </si>
   <si>
     <t>https://askubuntu.com/questions/505506/how-to-get-bash-or-ssh-into-a-running-container-in-background-mode First answer is relevant</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
   </si>
 </sst>
 </file>
@@ -711,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +765,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -777,7 +774,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -788,7 +785,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -797,12 +794,12 @@
         <v>10</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -811,15 +808,15 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -840,7 +837,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -851,7 +848,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -863,15 +860,15 @@
         <v>10</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -888,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -900,7 +897,7 @@
         <v>2.1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -914,13 +911,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="14">
         <v>0.3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -928,13 +922,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="14">
         <v>0.4</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -942,16 +936,16 @@
         <v>2.4</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="14">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -959,7 +953,7 @@
         <v>2.5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
@@ -971,14 +965,14 @@
         <v>2.6</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="14"/>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -986,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -998,7 +992,7 @@
         <v>3.1</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
@@ -1009,7 +1003,7 @@
         <v>3.2</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>10</v>
@@ -1020,7 +1014,7 @@
         <v>3.3</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -1031,22 +1025,22 @@
         <v>3.4</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="I26" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -1054,10 +1048,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" s="14">
         <v>1</v>
@@ -1066,29 +1060,29 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -1096,10 +1090,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -1107,10 +1101,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -1118,10 +1112,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -1129,10 +1123,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
@@ -1140,10 +1134,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1151,16 +1145,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1168,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -1180,7 +1174,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -1189,30 +1183,30 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E40" s="14">
         <v>0.7</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1220,7 +1214,7 @@
         <v>4.2</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>10</v>
@@ -1231,7 +1225,7 @@
         <v>4.3</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>

--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>Define the deployment Architecture</t>
   </si>
@@ -266,6 +266,30 @@
   </si>
   <si>
     <t>1.2.3</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>Version missmatch: node uses 58 instead of 52, but we'll just use the newer one</t>
+  </si>
+  <si>
+    <t>Issue: Browser.CHROME is hardcoded in administration.py, so this is inflexible</t>
   </si>
 </sst>
 </file>
@@ -352,7 +376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="0">
       <alignment horizontal="left"/>
@@ -361,8 +385,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,14 +426,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Style 1" xfId="1"/>
     <cellStyle name="Style 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -706,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,172 +988,181 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="I17" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>2.4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E21" s="14">
         <v>0.99</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>2.5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="I20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>3</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>3.1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>3.2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>3.3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>3.4</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="I26" s="15" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="15" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -1090,32 +1170,41 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -1123,10 +1212,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
@@ -1134,10 +1223,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1145,110 +1234,143 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+    <row r="41" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E43" s="14">
         <v>0.7</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>4.2</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>4.3</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F10:F42 F2:F3 F5:F8">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="x">
+  <conditionalFormatting sqref="F2:F3 F5:F8 F10:F45">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G1048576 G1:G3 G5:G8">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="x">
+  <conditionalFormatting sqref="G1:G3 G5:G8 G10:G1048576">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D1048576 D2:D3 D5:D8">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="*">
+  <conditionalFormatting sqref="D2:D3 D5:D8 D10:D1048576">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="*">
       <formula>NOT(ISERROR(SEARCH("*",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>Define the deployment Architecture</t>
   </si>
@@ -244,9 +244,6 @@
     <t>1.1.4</t>
   </si>
   <si>
-    <t>Find a way to not get fucked by power outages or machine crashes</t>
-  </si>
-  <si>
     <t>Presentation on 27/03 at 11:30 in room A118</t>
   </si>
   <si>
@@ -289,7 +286,34 @@
     <t>Version missmatch: node uses 58 instead of 52, but we'll just use the newer one</t>
   </si>
   <si>
-    <t>Issue: Browser.CHROME is hardcoded in administration.py, so this is inflexible</t>
+    <t>Running suites in parallel</t>
+  </si>
+  <si>
+    <t>Investigate the feasibility of running suites in parallel</t>
+  </si>
+  <si>
+    <t>Investigate and document which suites I am going to run in parallel</t>
+  </si>
+  <si>
+    <t>Execute it</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>2.7.2</t>
+  </si>
+  <si>
+    <t>2.7.3</t>
+  </si>
+  <si>
+    <t>2.7.4</t>
+  </si>
+  <si>
+    <t>Issue: Browser.CHROME is hardcoded in administration.py, so this is inflexible (not entirely accurate)</t>
+  </si>
+  <si>
+    <t>Find a way to not get &lt;redacted&gt; by power outages or machine crashes</t>
   </si>
 </sst>
 </file>
@@ -437,49 +461,7 @@
     <cellStyle name="Style 1" xfId="1"/>
     <cellStyle name="Style 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -777,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,7 +869,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -908,7 +890,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -919,7 +901,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -936,7 +918,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -1002,15 +984,15 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="I17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
@@ -1019,15 +1001,15 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
@@ -1036,15 +1018,15 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
@@ -1067,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1097,136 +1079,142 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>3.1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>3.2</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>3.3</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>3.4</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="I29" s="15" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="I34" s="15" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1234,32 +1222,41 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
@@ -1267,105 +1264,160 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>4</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>4</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>4.2</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>4.3</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F3 F5:F8 F10:F45">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="x">
+  <conditionalFormatting sqref="F2:F3 F5:F8 F10:F50">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G3 G5:G8 G10:G1048576">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 D5:D8 D10:D1048576">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="*">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="*">
       <formula>NOT(ISERROR(SEARCH("*",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -123,9 +123,6 @@
     <t>3.4.3</t>
   </si>
   <si>
-    <t>Prepare for the "tussentijdse evaluatie"</t>
-  </si>
-  <si>
     <t>3.4.4</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Find a way to not get &lt;redacted&gt; by power outages or machine crashes</t>
+  </si>
+  <si>
+    <t>Prepare for the "tussentijdse presentatie"</t>
   </si>
 </sst>
 </file>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +832,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
@@ -847,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,15 +864,15 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -890,7 +893,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -901,7 +904,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -913,15 +916,15 @@
         <v>10</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -930,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -984,15 +987,15 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="I17" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
@@ -1001,15 +1004,15 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
@@ -1018,15 +1021,15 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
@@ -1040,7 +1043,7 @@
         <v>2.4</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="14">
         <v>0.99</v>
@@ -1049,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,14 +1072,14 @@
         <v>2.6</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="14"/>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,7 +1087,7 @@
         <v>2.7</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="18">
@@ -1095,10 +1098,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -1109,10 +1112,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
@@ -1123,10 +1126,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -1137,7 +1140,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1206,7 +1209,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="I34" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1242,32 +1245,38 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
@@ -1275,10 +1284,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>10</v>
@@ -1286,10 +1295,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
@@ -1297,10 +1306,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>10</v>
@@ -1308,10 +1317,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
@@ -1319,16 +1328,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
         <v>47</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1336,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -1348,7 +1357,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -1357,30 +1366,30 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="14">
         <v>0.7</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1388,7 +1397,7 @@
         <v>4.2</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
@@ -1399,7 +1408,7 @@
         <v>4.3</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>

--- a/Planning_Internship_Thesis.xlsx
+++ b/Planning_Internship_Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>Define the deployment Architecture</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Create a new Docker image on which the WebAdmin suite works</t>
   </si>
   <si>
-    <t>I'll probably start on this once the demo works</t>
-  </si>
-  <si>
     <t>Signed and handed in on 07/03/2018</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Currently works for chrome</t>
   </si>
   <si>
-    <t>Idk, It should be fine? Might not be 100% bug free, so I'm putting it on finished, but not 100%</t>
-  </si>
-  <si>
     <t>https://askubuntu.com/questions/505506/how-to-get-bash-or-ssh-into-a-running-container-in-background-mode First answer is relevant</t>
   </si>
   <si>
@@ -314,6 +308,24 @@
   </si>
   <si>
     <t>Prepare for the "tussentijdse presentatie"</t>
+  </si>
+  <si>
+    <t>Ported a workaround to fix a known bug, but the issue persisted on the new infrastructure. No known (hypothetical) solutions helped, so this is completely blocked.</t>
+  </si>
+  <si>
+    <t>Done, excluding IE</t>
+  </si>
+  <si>
+    <t>2.7.5</t>
+  </si>
+  <si>
+    <t>2.7.6</t>
+  </si>
+  <si>
+    <t>Document the necessary changes for each "cases" file (sub-suite?)</t>
+  </si>
+  <si>
+    <t>See how to read out the results from the tracefile</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,6 +463,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -869,10 +884,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -893,7 +908,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -904,7 +919,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -921,7 +936,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -970,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -987,15 +1002,15 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="I17" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
@@ -1004,15 +1019,15 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
@@ -1021,21 +1036,24 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E20" s="14">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,16 +1061,13 @@
         <v>2.4</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,10 +1077,12 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1074,12 +1091,11 @@
       <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14">
+        <v>0.7</v>
+      </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1087,7 +1103,7 @@
         <v>2.7</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="18">
@@ -1098,207 +1114,198 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E25" s="14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E26" s="14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>3</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>3.3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>3.4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="I34" s="15" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="I36" s="15" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="14">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E38" s="14">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0.99</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
@@ -1306,10 +1313,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>10</v>
@@ -1317,105 +1324,127 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+    <row r="48" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>4</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E50" s="14">
         <v>0.7</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>4.2</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>4.3</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F3 F5:F8 F10:F50">
+  <conditionalFormatting sqref="F2:F3 F5:F8 F10:F52">
     <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",F2)))</formula>
     </cfRule>
